--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_18_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_18_30.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2212858.254761099</v>
+        <v>2317037.88921217</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -656,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>192.0524966157156</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,7 +676,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -710,19 +712,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>52.98455791795016</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -817,25 +819,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>155.7570797884752</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>184.5412004069472</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.792004777348516</v>
+        <v>50.56405588463302</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,16 +949,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -990,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1057,16 +1059,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -1099,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>207.0497659316669</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>157.4839442192529</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1145,13 +1147,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>188.2880805260337</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,16 +1186,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>273.5080478807773</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1227,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1297,19 +1299,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>20.21044458879245</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>51.39121609254011</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1528,19 +1530,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>154.5586518047166</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1573,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>145.2857567969021</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1762,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>133.1319933510085</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1819,19 +1821,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>245.8796921214428</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1895,7 +1897,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1910,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="18">
@@ -2002,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2011,7 +2013,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>26.07046444232071</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2062,13 +2064,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>204.4247418692614</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2087,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2242,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2299,13 +2301,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>72.57619040703456</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2491,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>27.68426743653305</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2536,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>175.3253504652189</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2612,7 +2614,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2710,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>148.6282353729474</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2725,13 +2727,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2779,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>108.5813113004315</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2950,22 +2952,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -3010,10 +3012,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>73.56194264363255</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3092,7 +3094,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784681</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3187,16 +3189,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>145.7379152067529</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3235,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>129.7194509233187</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3250,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3263,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3424,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3478,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>275.330023919727</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3487,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>207.8265479177799</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3554,7 +3556,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3667,16 +3669,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>55.52079624060555</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3718,7 +3720,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>80.70399854267949</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3755,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3898,13 +3900,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3949,7 +3951,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3964,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>2.445727774093873</v>
       </c>
     </row>
     <row r="44">
@@ -4031,7 +4033,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4144,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>4.974488840438626</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4180,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>111.321323070213</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4198,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1320.35562273557</v>
+        <v>1959.379186075721</v>
       </c>
       <c r="C2" t="n">
-        <v>1320.35562273557</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.35562273557</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4352,28 +4354,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410102</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2630.721789066531</v>
+        <v>2702.287173321647</v>
       </c>
       <c r="W2" t="n">
-        <v>2277.953133796417</v>
+        <v>2349.518518051532</v>
       </c>
       <c r="X2" t="n">
-        <v>1904.487375535337</v>
+        <v>2349.518518051532</v>
       </c>
       <c r="Y2" t="n">
-        <v>1514.348043559525</v>
+        <v>1959.379186075721</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
         <v>2407.411984886741</v>
@@ -4440,7 +4442,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>679.6952191369613</v>
+        <v>617.5020034330385</v>
       </c>
       <c r="C4" t="n">
-        <v>510.7590362090544</v>
+        <v>617.5020034330385</v>
       </c>
       <c r="D4" t="n">
-        <v>360.6423967967187</v>
+        <v>467.3853640207027</v>
       </c>
       <c r="E4" t="n">
-        <v>212.7293032143256</v>
+        <v>467.3853640207027</v>
       </c>
       <c r="F4" t="n">
-        <v>212.7293032143256</v>
+        <v>467.3853640207027</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4510,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1740.889295152183</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1451.786428277826</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1197.101940071939</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="W4" t="n">
-        <v>907.6847700349787</v>
+        <v>845.4915543310558</v>
       </c>
       <c r="X4" t="n">
-        <v>679.6952191369613</v>
+        <v>617.5020034330385</v>
       </c>
       <c r="Y4" t="n">
-        <v>679.6952191369613</v>
+        <v>617.5020034330385</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1303.529887077737</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C5" t="n">
-        <v>934.5673701373257</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D5" t="n">
-        <v>934.5673701373257</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520486</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794323</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450752</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180638</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.509627919558</v>
+        <v>2382.341170533244</v>
       </c>
       <c r="Y5" t="n">
-        <v>1308.370295943746</v>
+        <v>1992.201838557432</v>
       </c>
     </row>
     <row r="6">
@@ -4620,34 +4622,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
         <v>765.151745215813</v>
@@ -4662,10 +4664,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4677,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>847.3980557622424</v>
+        <v>676.468527222536</v>
       </c>
       <c r="C7" t="n">
-        <v>678.4618728343355</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="D7" t="n">
-        <v>528.3452334219998</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="E7" t="n">
-        <v>380.4321398396066</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G7" t="n">
         <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088492</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1705.527932658018</v>
+        <v>1436.637028964093</v>
       </c>
       <c r="U7" t="n">
-        <v>1705.527932658018</v>
+        <v>1147.534162089736</v>
       </c>
       <c r="V7" t="n">
-        <v>1546.45324152746</v>
+        <v>1147.534162089736</v>
       </c>
       <c r="W7" t="n">
-        <v>1257.036071490499</v>
+        <v>858.1169920527757</v>
       </c>
       <c r="X7" t="n">
-        <v>1029.046520592482</v>
+        <v>858.1169920527757</v>
       </c>
       <c r="Y7" t="n">
-        <v>1029.046520592482</v>
+        <v>858.1169920527757</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1418.660964416651</v>
+        <v>1899.13013587303</v>
       </c>
       <c r="C8" t="n">
-        <v>1049.69844747624</v>
+        <v>1530.167618932618</v>
       </c>
       <c r="D8" t="n">
-        <v>691.4327488694894</v>
+        <v>1171.901920325867</v>
       </c>
       <c r="E8" t="n">
-        <v>305.6444962712451</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="F8" t="n">
-        <v>298.6989955220417</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993392</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.097597267228</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2535.034709923657</v>
+        <v>3049.335066174043</v>
       </c>
       <c r="W8" t="n">
-        <v>2182.266054653543</v>
+        <v>3049.335066174043</v>
       </c>
       <c r="X8" t="n">
-        <v>1808.800296392463</v>
+        <v>2675.869307912963</v>
       </c>
       <c r="Y8" t="n">
-        <v>1418.660964416651</v>
+        <v>2285.729975937151</v>
       </c>
     </row>
     <row r="9">
@@ -4857,34 +4859,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
         <v>765.1517452158134</v>
@@ -4893,7 +4895,7 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4914,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1091.613680441807</v>
+        <v>678.6720730524786</v>
       </c>
       <c r="C10" t="n">
-        <v>922.6774975139006</v>
+        <v>509.7358901245717</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>359.619250712236</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1817.049500352291</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1817.049500352291</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U10" t="n">
-        <v>1527.946633477934</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="V10" t="n">
-        <v>1273.262145272047</v>
+        <v>1361.01298720966</v>
       </c>
       <c r="W10" t="n">
-        <v>1273.262145272047</v>
+        <v>1309.102667924266</v>
       </c>
       <c r="X10" t="n">
-        <v>1273.262145272047</v>
+        <v>1081.113117026248</v>
       </c>
       <c r="Y10" t="n">
-        <v>1273.262145272047</v>
+        <v>860.3205378827183</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,7 +5029,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5036,13 +5038,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5057,7 +5059,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5072,7 +5074,7 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5118,28 +5120,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>653.7474797708871</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C13" t="n">
-        <v>484.8112968429803</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429803</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
         <v>317.6151975578602</v>
@@ -5221,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1573.595244679635</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W13" t="n">
-        <v>1284.178074642674</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X13" t="n">
-        <v>1056.188523744657</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y13" t="n">
-        <v>835.3959446011269</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="14">
@@ -5252,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5267,61 +5269,61 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192741</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111729</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5361,22 +5363,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N15" t="n">
-        <v>1964.511902868375</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O15" t="n">
-        <v>2516.421633107662</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,13 +5412,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E16" t="n">
         <v>631.7012443408906</v>
@@ -5425,13 +5427,13 @@
         <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5467,19 +5469,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1729.097755135313</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="17">
@@ -5507,16 +5509,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075806</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5534,13 +5536,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5549,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5586,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L18" t="n">
-        <v>738.7889117913853</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M18" t="n">
-        <v>1231.938859683105</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N18" t="n">
-        <v>1859.536823237711</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263526</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356194</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5695,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2420.62928111327</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2237.774446768174</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2018.172981791115</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1729.097755135313</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1729.097755135313</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W19" t="n">
-        <v>1729.097755135313</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>964.4894946679489</v>
       </c>
     </row>
     <row r="20">
@@ -5726,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5744,16 +5746,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5771,31 +5773,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5823,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M21" t="n">
-        <v>840.8417932021785</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N21" t="n">
-        <v>1468.439756756785</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O21" t="n">
-        <v>2020.349486996072</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P21" t="n">
-        <v>2443.97263649114</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5947,13 +5949,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="23">
@@ -5981,19 +5983,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
@@ -6005,34 +6007,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6060,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
@@ -6078,10 +6080,10 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P24" t="n">
         <v>2516.421633107662</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.8686257536381</v>
+        <v>3228.789304425605</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>3059.853121497698</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>2909.736482085363</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>2761.823388502969</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>2614.933441005059</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797186</v>
+        <v>2447.737341719939</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="W25" t="n">
-        <v>1323.650755795185</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="X25" t="n">
-        <v>1095.661204897168</v>
+        <v>3449.581883569135</v>
       </c>
       <c r="Y25" t="n">
-        <v>874.8686257536381</v>
+        <v>3228.789304425605</v>
       </c>
     </row>
     <row r="26">
@@ -6212,31 +6214,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6245,28 +6247,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6297,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>280.8495004245706</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3118.73869457197</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C28" t="n">
-        <v>2949.802511644063</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="D28" t="n">
-        <v>2799.685872231727</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E28" t="n">
-        <v>2651.772778649334</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F28" t="n">
-        <v>2504.882831151423</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G28" t="n">
-        <v>2337.686731866303</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>2337.686731866303</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>4690.833152398593</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>4471.231687421534</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>4182.156460765732</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>3927.471972559845</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>3638.054802522885</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>3410.065251624867</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>3300.387159402209</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
@@ -6464,7 +6466,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6476,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6494,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6540,22 +6542,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P30" t="n">
         <v>2319.799627685893</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>3200.825397924057</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429803</v>
+        <v>3031.88921499615</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>2881.772575583814</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>2733.859482001421</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>2586.969534503511</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>3603.266441897827</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>3382.473862754297</v>
       </c>
     </row>
     <row r="32">
@@ -6689,28 +6691,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6719,25 +6721,25 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
         <v>3094.515198591808</v>
@@ -6771,28 +6773,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>372.4964262156764</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>867.8220324314351</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O33" t="n">
-        <v>2516.421633107662</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P33" t="n">
         <v>2516.421633107662</v>
@@ -6832,49 +6834,49 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2876.594459243706</v>
+        <v>3341.834150859821</v>
       </c>
       <c r="C34" t="n">
-        <v>2876.594459243706</v>
+        <v>3172.897967931914</v>
       </c>
       <c r="D34" t="n">
-        <v>2876.594459243706</v>
+        <v>3022.781328519578</v>
       </c>
       <c r="E34" t="n">
-        <v>2728.681365661313</v>
+        <v>2875.571313159222</v>
       </c>
       <c r="F34" t="n">
-        <v>2728.681365661313</v>
+        <v>2728.681365661312</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376193</v>
+        <v>2561.485266376192</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218391</v>
+        <v>2419.77343521839</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>2337.686731866303</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>2417.922750296627</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>2679.612012822166</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>3070.010606998106</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>3492.020309729141</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>3909.430181389149</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>4278.959462098134</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>4571.634917671693</v>
       </c>
       <c r="Q34" t="n">
         <v>4690.833152398593</v>
@@ -6883,25 +6885,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S34" t="n">
-        <v>4559.803403991201</v>
+        <v>4507.978318053497</v>
       </c>
       <c r="T34" t="n">
-        <v>4340.201939014142</v>
+        <v>4288.376853076438</v>
       </c>
       <c r="U34" t="n">
-        <v>4051.12671235834</v>
+        <v>4288.376853076438</v>
       </c>
       <c r="V34" t="n">
-        <v>3796.442224152453</v>
+        <v>4033.692364870552</v>
       </c>
       <c r="W34" t="n">
-        <v>3507.025054115493</v>
+        <v>3744.275194833591</v>
       </c>
       <c r="X34" t="n">
-        <v>3279.035503217476</v>
+        <v>3744.275194833591</v>
       </c>
       <c r="Y34" t="n">
-        <v>3058.242924073946</v>
+        <v>3523.482615690061</v>
       </c>
     </row>
     <row r="35">
@@ -6929,58 +6931,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7008,28 +7010,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>943.510265746755</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O36" t="n">
-        <v>2516.421633107662</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P36" t="n">
         <v>2516.421633107662</v>
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>707.672526468518</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="C37" t="n">
-        <v>538.7363435406111</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D37" t="n">
-        <v>388.6197041282753</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458822</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7117,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>2160.315914855604</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U37" t="n">
-        <v>1882.204779583153</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V37" t="n">
-        <v>1627.520291377266</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W37" t="n">
-        <v>1338.103121340305</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X37" t="n">
-        <v>1110.113570442288</v>
+        <v>1184.258927726996</v>
       </c>
       <c r="Y37" t="n">
-        <v>889.3209912987577</v>
+        <v>963.466348583466</v>
       </c>
     </row>
     <row r="38">
@@ -7166,40 +7168,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
@@ -7208,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7245,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3007.624207651098</v>
+        <v>868.6673633290469</v>
       </c>
       <c r="C40" t="n">
-        <v>2838.688024723191</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D40" t="n">
-        <v>2688.571385310855</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E40" t="n">
-        <v>2540.658291728462</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F40" t="n">
-        <v>2393.768344230552</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>2337.686731866303</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>4690.833152398593</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>4471.231687421534</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>4182.156460765732</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>3927.471972559845</v>
+        <v>1606.866663407555</v>
       </c>
       <c r="W40" t="n">
-        <v>3638.054802522885</v>
+        <v>1317.449493370594</v>
       </c>
       <c r="X40" t="n">
-        <v>3410.065251624867</v>
+        <v>1089.459942472577</v>
       </c>
       <c r="Y40" t="n">
-        <v>3189.272672481337</v>
+        <v>868.6673633290469</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
@@ -7406,25 +7408,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7485,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>244.2098454714574</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>739.5354516872161</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>1336.913939313768</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N42" t="n">
-        <v>1964.511902868375</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O42" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C43" t="n">
-        <v>484.8112968429803</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429803</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E43" t="n">
         <v>484.8112968429803</v>
@@ -7597,22 +7599,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="44">
@@ -7643,13 +7645,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7682,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C45" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D45" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F45" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G45" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>2233.355914590558</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>2383.002557118213</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>2716.927329289434</v>
       </c>
       <c r="L45" t="n">
-        <v>245.2306927803937</v>
+        <v>3212.252935505192</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>3809.631423131744</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>3809.631423131744</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>4361.541153371031</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>4420.931837070599</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="R45" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S45" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T45" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U45" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V45" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W45" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X45" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y45" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="46">
@@ -7780,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>803.8641191832229</v>
+        <v>808.8888553856862</v>
       </c>
       <c r="C46" t="n">
-        <v>634.927936255316</v>
+        <v>639.9526724577793</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>489.8360330454435</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>489.8360330454435</v>
       </c>
       <c r="F46" t="n">
         <v>484.8112968429803</v>
@@ -7828,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2267.47159895366</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.396372297858</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1723.711884091971</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1434.29471405501</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>1206.305163156993</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="Y46" t="n">
-        <v>985.5125840134626</v>
+        <v>990.5373202159259</v>
       </c>
     </row>
   </sheetData>
@@ -23416,19 +23418,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>12.68816929391124</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23650,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>34.1148277476193</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23707,19 +23709,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>40.30478226780133</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23890,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23899,7 +23901,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>40.30478226780097</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23950,13 +23952,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>14.15991148283342</v>
       </c>
     </row>
     <row r="20">
@@ -24130,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24187,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>146.0084629450602</v>
       </c>
     </row>
     <row r="23">
@@ -24379,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>112.6104454096908</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24424,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>111.1976478713721</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24598,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>18.61858572568039</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24613,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24651,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>110.0033420516633</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,22 +24840,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24898,10 +24900,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>152.1477127454046</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25075,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>0.696047439816283</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25123,13 +25125,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>51.30683507832592</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25138,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25312,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -25366,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>10.85445046951713</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25375,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>17.88310747125726</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25555,16 +25557,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>110.0033420516633</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25606,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>171.4336447811485</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25786,13 +25788,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25837,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>216.1389255780009</v>
       </c>
     </row>
     <row r="44">
@@ -26032,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>140.4465591824926</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26068,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>106.0841272570753</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26086,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>818125.5910602279</v>
+        <v>818125.5910602278</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>818125.5910602278</v>
+        <v>818125.5910602279</v>
       </c>
     </row>
     <row r="9">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>818125.5910602278</v>
+        <v>818125.5910602279</v>
       </c>
     </row>
     <row r="14">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982124</v>
+        <v>615781.3273982123</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982123</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982129</v>
+        <v>615781.3273982123</v>
       </c>
       <c r="E2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="F2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="G2" t="n">
         <v>605359.9497675045</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>605359.9497675042</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>605359.9497675042</v>
       </c>
-      <c r="H2" t="n">
-        <v>605359.949767504</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="K2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="L2" t="n">
+        <v>605359.9497675045</v>
+      </c>
+      <c r="M2" t="n">
         <v>605359.9497675044</v>
-      </c>
-      <c r="J2" t="n">
-        <v>605359.9497675044</v>
-      </c>
-      <c r="K2" t="n">
-        <v>605359.9497675045</v>
-      </c>
-      <c r="L2" t="n">
-        <v>605359.9497675041</v>
-      </c>
-      <c r="M2" t="n">
-        <v>605359.9497675041</v>
       </c>
       <c r="N2" t="n">
         <v>605359.9497675044</v>
       </c>
       <c r="O2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="P2" t="n">
         <v>605359.9497675044</v>
-      </c>
-      <c r="P2" t="n">
-        <v>605359.9497675042</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90964.01098815713</v>
+        <v>90964.01098815714</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.01098815721</v>
+        <v>90964.0109881571</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.01098815716</v>
+        <v>90964.01098815704</v>
       </c>
       <c r="E4" t="n">
         <v>11776.97621680582</v>
@@ -26433,22 +26435,22 @@
         <v>11776.97621680582</v>
       </c>
       <c r="H4" t="n">
-        <v>11776.97621680588</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="I4" t="n">
-        <v>11776.97621680588</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="J4" t="n">
-        <v>11776.97621680587</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="K4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="L4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680586</v>
       </c>
       <c r="M4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680587</v>
       </c>
       <c r="N4" t="n">
         <v>11776.97621680582</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-911861.3698789306</v>
+        <v>-911861.3698789307</v>
       </c>
       <c r="C6" t="n">
-        <v>416883.3758486622</v>
+        <v>416883.3758486619</v>
       </c>
       <c r="D6" t="n">
-        <v>416883.3758486625</v>
+        <v>416883.375848662</v>
       </c>
       <c r="E6" t="n">
-        <v>167047.9819194361</v>
+        <v>167047.9819194362</v>
       </c>
       <c r="F6" t="n">
-        <v>492460.4437267913</v>
+        <v>492460.4437267911</v>
       </c>
       <c r="G6" t="n">
-        <v>492460.4437267913</v>
+        <v>492460.4437267915</v>
       </c>
       <c r="H6" t="n">
-        <v>492460.4437267911</v>
+        <v>492460.4437267912</v>
       </c>
       <c r="I6" t="n">
-        <v>492460.4437267914</v>
+        <v>492460.4437267912</v>
       </c>
       <c r="J6" t="n">
-        <v>274929.241329514</v>
+        <v>274929.2413295138</v>
       </c>
       <c r="K6" t="n">
+        <v>492460.4437267912</v>
+      </c>
+      <c r="L6" t="n">
         <v>492460.4437267915</v>
       </c>
-      <c r="L6" t="n">
-        <v>492460.4437267912</v>
-      </c>
       <c r="M6" t="n">
-        <v>407405.4157912793</v>
+        <v>407405.4157912796</v>
       </c>
       <c r="N6" t="n">
         <v>492460.4437267914</v>
       </c>
       <c r="O6" t="n">
+        <v>492460.4437267912</v>
+      </c>
+      <c r="P6" t="n">
         <v>492460.4437267914</v>
-      </c>
-      <c r="P6" t="n">
-        <v>492460.4437267913</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="C4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.4014554022923</v>
-      </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>190.681345047765</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,19 +27432,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>274.7677005521847</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27537,25 +27539,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>10.26872847055301</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>35.00774886922204</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27613,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>377.9418368861321</v>
+        <v>332.1697857788475</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27673,10 +27675,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27777,22 +27779,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>12.49918334450234</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>94.65369910457514</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27865,13 +27867,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>222.6336451274197</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,16 +27906,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>54.24421058935758</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28017,19 +28019,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,25 +28061,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>169.5585807426494</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>235.1317822440509</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29812,7 +29814,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -29983,7 +29985,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -31276,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138799</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,7 +31840,7 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
@@ -31850,19 +31852,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>473.8581708471803</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31993,7 +31995,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067246</v>
       </c>
       <c r="J14" t="n">
         <v>466.7546155663283</v>
@@ -32081,25 +32083,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>428.7353800421384</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>334.7693860946154</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32321,19 +32323,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>640.2652944187043</v>
+        <v>316.6133175811573</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
@@ -32546,19 +32548,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>671.9287955253226</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32567,10 +32569,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>213.1625787491746</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
@@ -32798,13 +32800,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>363.5371514786841</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>431.3680753731354</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32944,7 +32946,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K26" t="n">
         <v>699.5441750817575</v>
@@ -33026,28 +33028,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>175.6052721551106</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>640.2652944187043</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33184,7 +33186,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
         <v>867.846407116256</v>
@@ -33205,7 +33207,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33260,25 +33262,25 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>383.9182138639289</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
@@ -33494,13 +33496,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>417.5509096439927</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33512,10 +33514,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>363.5371514786841</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33731,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33740,19 +33742,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>506.5895320981981</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>363.5371514786841</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33895,7 +33897,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L38" t="n">
         <v>867.846407116256</v>
@@ -33974,13 +33976,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>581.3243739860829</v>
+        <v>281.0363767960755</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33995,7 +33997,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34138,7 +34140,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N41" t="n">
         <v>981.2715114159425</v>
@@ -34205,31 +34207,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>138.5955196772184</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>452.8027404478649</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34363,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34387,7 +34389,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34448,22 +34450,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340057</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35486,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
@@ -35498,19 +35500,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>342.516458763847</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35641,7 +35643,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236318714</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
@@ -35653,7 +35655,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
@@ -35729,25 +35731,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>297.3936679588052</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>200.7949786802852</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35969,19 +35971,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>498.1312604966861</v>
+        <v>174.479283659139</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>37.00975247789211</v>
@@ -36121,7 +36123,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
@@ -36194,19 +36196,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>529.7947616033043</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36215,10 +36217,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>73.18080466315305</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>37.00975247789211</v>
@@ -36355,7 +36357,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396416</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36446,13 +36448,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>220.9409070342396</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>297.3936679588052</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36592,7 +36594,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K26" t="n">
         <v>479.454324036777</v>
@@ -36674,28 +36676,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>37.76383318075158</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>498.1312604966861</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36832,7 +36834,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
@@ -36853,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>249.9438064495987</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
@@ -37142,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>279.7094706696337</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37160,10 +37162,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>220.9409070342396</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37379,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,19 +37390,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>368.0351523183239</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>220.9409070342396</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37543,7 +37545,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37622,13 +37624,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>439.1903400640646</v>
+        <v>138.9023428740572</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37643,7 +37645,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37786,7 +37788,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37853,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0.7540807028594299</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>310.2064960034205</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789211</v>
@@ -38011,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38035,7 +38037,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38096,22 +38098,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_18_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_18_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2317037.88921217</v>
+        <v>2313025.279198177</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -667,7 +667,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
@@ -718,16 +718,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>52.98455791795016</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>132.987015343851</v>
       </c>
     </row>
     <row r="3">
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734093895</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -831,13 +831,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>155.7570797884752</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>87.38003424864959</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -885,7 +885,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>50.56405588463302</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>191.2490250244974</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -949,16 +949,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1059,7 +1059,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>207.0497659316669</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>179.0530003794244</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>307.0009208268447</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1144,10 +1144,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1192,10 +1192,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>273.5080478807773</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>171.4083237228196</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1305,10 +1305,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>51.39121609254011</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1530,10 +1530,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>154.5586518047166</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>36.22494343870233</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1587,10 +1587,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>133.1319933510085</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>94.64226186542874</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1827,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2004,19 +2004,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2061,7 +2061,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>204.4247418692614</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2250,10 +2250,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>130.5513683573768</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2298,16 +2298,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>72.57619040703456</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>27.68426743653305</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>148.6282353729474</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2958,16 +2958,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>105.3219429113318</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -3009,13 +3009,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>73.56194264363255</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3094,7 +3094,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784681</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>145.7379152067529</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3435,10 +3435,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>125.8152577453148</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>207.8265479177799</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3669,16 +3669,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3720,7 +3720,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>80.70399854267949</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3903,10 +3903,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>2.445727774093873</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4143,19 +4143,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>4.974488840438626</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>179.2499669408062</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1959.379186075721</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
-        <v>1590.416669135309</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
         <v>1232.150970528558</v>
@@ -4327,19 +4327,19 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4354,28 +4354,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V2" t="n">
-        <v>2702.287173321647</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="W2" t="n">
-        <v>2349.518518051532</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="X2" t="n">
-        <v>2349.518518051532</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="Y2" t="n">
-        <v>1959.379186075721</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>936.5735814686079</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>846.0716871064755</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>827.0643955080134</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986308</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486468</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962571</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>617.5020034330385</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="C4" t="n">
-        <v>617.5020034330385</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D4" t="n">
-        <v>467.3853640207027</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E4" t="n">
-        <v>467.3853640207027</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F4" t="n">
-        <v>467.3853640207027</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4512,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1839.031887231271</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1647.346003058097</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>1425.579387627623</v>
       </c>
       <c r="U4" t="n">
-        <v>1134.908724368016</v>
+        <v>1136.476520753267</v>
       </c>
       <c r="V4" t="n">
-        <v>1134.908724368016</v>
+        <v>1136.476520753267</v>
       </c>
       <c r="W4" t="n">
-        <v>845.4915543310558</v>
+        <v>847.0593507163063</v>
       </c>
       <c r="X4" t="n">
-        <v>617.5020034330385</v>
+        <v>619.069799818289</v>
       </c>
       <c r="Y4" t="n">
-        <v>617.5020034330385</v>
+        <v>398.2772206747588</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1941.127034633561</v>
+        <v>1127.748203495404</v>
       </c>
       <c r="C5" t="n">
-        <v>1572.164517693149</v>
+        <v>1127.748203495404</v>
       </c>
       <c r="D5" t="n">
-        <v>1213.898819086399</v>
+        <v>1127.748203495404</v>
       </c>
       <c r="E5" t="n">
-        <v>828.1105664881544</v>
+        <v>1127.748203495404</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>716.7622987057964</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>301.6898485507929</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4567,16 +4567,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794324</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W5" t="n">
-        <v>2755.806928794324</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X5" t="n">
-        <v>2382.341170533244</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y5" t="n">
-        <v>1992.201838557432</v>
+        <v>1514.348043559526</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,10 +4701,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>676.468527222536</v>
+        <v>826.5851666348717</v>
       </c>
       <c r="C7" t="n">
-        <v>507.5323442946291</v>
+        <v>657.6489837069648</v>
       </c>
       <c r="D7" t="n">
         <v>507.5323442946291</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1436.637028964093</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1147.534162089736</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1147.534162089736</v>
+        <v>1746.43293154362</v>
       </c>
       <c r="W7" t="n">
-        <v>858.1169920527757</v>
+        <v>1457.015761506659</v>
       </c>
       <c r="X7" t="n">
-        <v>858.1169920527757</v>
+        <v>1229.026210608642</v>
       </c>
       <c r="Y7" t="n">
-        <v>858.1169920527757</v>
+        <v>1008.233631465111</v>
       </c>
     </row>
     <row r="8">
@@ -4789,10 +4789,10 @@
         <v>1171.901920325867</v>
       </c>
       <c r="E8" t="n">
-        <v>786.1136677276232</v>
+        <v>786.1136677276231</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>375.1277629380156</v>
       </c>
       <c r="G8" t="n">
         <v>364.0957168234162</v>
@@ -4804,19 +4804,19 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4840,16 +4840,16 @@
         <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>3049.335066174043</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W8" t="n">
-        <v>3049.335066174043</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X8" t="n">
-        <v>2675.869307912963</v>
+        <v>2599.371408077977</v>
       </c>
       <c r="Y8" t="n">
-        <v>2285.729975937151</v>
+        <v>2209.232076102166</v>
       </c>
     </row>
     <row r="9">
@@ -4874,10 +4874,10 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4889,16 +4889,16 @@
         <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>678.6720730524786</v>
+        <v>700.1577228956174</v>
       </c>
       <c r="C10" t="n">
-        <v>509.7358901245717</v>
+        <v>531.2215399677106</v>
       </c>
       <c r="D10" t="n">
-        <v>359.619250712236</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E10" t="n">
-        <v>359.619250712236</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143257</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
         <v>66.51211643218343</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.697475415547</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1615.697475415547</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V10" t="n">
-        <v>1361.01298720966</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W10" t="n">
-        <v>1309.102667924266</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X10" t="n">
-        <v>1081.113117026248</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="Y10" t="n">
-        <v>860.3205378827183</v>
+        <v>873.2974438277585</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,7 +5029,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5038,13 +5038,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5074,16 +5074,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5117,28 +5117,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N12" t="n">
-        <v>1859.536823237711</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>768.5380889459582</v>
+        <v>1053.171308869725</v>
       </c>
       <c r="C13" t="n">
-        <v>612.4182386381636</v>
+        <v>884.2351259418183</v>
       </c>
       <c r="D13" t="n">
-        <v>612.4182386381636</v>
+        <v>734.1184865294825</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>586.2053929470894</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578602</v>
+        <v>439.315445449179</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>272.119346164059</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>130.4075150062571</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>1688.385853854706</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1398.968683817745</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="X13" t="n">
-        <v>1170.979132919728</v>
+        <v>1455.612352843495</v>
       </c>
       <c r="Y13" t="n">
-        <v>950.1865537761979</v>
+        <v>1234.819773699965</v>
       </c>
     </row>
     <row r="14">
@@ -5254,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004714</v>
@@ -5266,7 +5266,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168618</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5275,7 +5275,7 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192741</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111729</v>
@@ -5320,10 +5320,10 @@
         <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1802.364528928006</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2354.274259167293</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>916.2946447138411</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C16" t="n">
-        <v>781.8178837532264</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D16" t="n">
-        <v>631.7012443408906</v>
+        <v>484.2179484367892</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>336.3048548543961</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>189.4149073564858</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578603</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797189</v>
@@ -5475,13 +5475,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y16" t="n">
-        <v>916.2946447138411</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="17">
@@ -5512,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5530,7 +5530,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5597,25 +5597,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>740.5562989961525</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M18" t="n">
-        <v>913.2907898187001</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N18" t="n">
-        <v>1540.888753373307</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612594</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>782.8410298377091</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>782.8410298377091</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>632.7243904253734</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
         <v>317.6151975578602</v>
@@ -5709,16 +5709,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>964.4894946679489</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5749,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5831,28 +5831,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L21" t="n">
-        <v>579.1554649516142</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M21" t="n">
-        <v>1103.652278938886</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N21" t="n">
-        <v>1731.250242493492</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>950.7540666811333</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C22" t="n">
-        <v>781.8178837532264</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D22" t="n">
-        <v>631.7012443408906</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="G22" t="n">
         <v>317.6151975578602</v>
@@ -5946,16 +5946,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W22" t="n">
-        <v>1433.701365648819</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X22" t="n">
-        <v>1205.711814750802</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y22" t="n">
-        <v>1132.402531511373</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="23">
@@ -5986,22 +5986,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3228.789304425605</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>3059.853121497698</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>2909.736482085363</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>2761.823388502969</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>2614.933441005059</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>2447.737341719939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>3677.571434467152</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>3449.581883569135</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>3228.789304425605</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
@@ -6226,10 +6226,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6241,7 +6241,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>762.5477693179085</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>612.4182386381636</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E28" t="n">
-        <v>464.5051450557705</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6539,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1520.445529061503</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2072.35525930079</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3200.825397924057</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C31" t="n">
-        <v>3031.88921499615</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D31" t="n">
-        <v>2881.772575583814</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="E31" t="n">
-        <v>2733.859482001421</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="F31" t="n">
-        <v>2586.969534503511</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="G31" t="n">
-        <v>2419.773435218391</v>
+        <v>282.2891673205955</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>3677.571434467152</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W31" t="n">
-        <v>3677.571434467152</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X31" t="n">
-        <v>3603.266441897827</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y31" t="n">
-        <v>3382.473862754297</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="32">
@@ -6691,28 +6691,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6721,25 +6721,25 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
         <v>3094.515198591808</v>
@@ -6773,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273902</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>372.4964262156764</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>867.8220324314351</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1465.200520057987</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2092.798483612594</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3341.834150859821</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>3172.897967931914</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>3022.781328519578</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>2875.571313159222</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>2728.681365661312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376192</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.77343521839</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4507.978318053497</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4288.376853076438</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>4288.376853076438</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>4033.692364870552</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>3744.275194833591</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>3744.275194833591</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>3523.482615690061</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6928,61 +6928,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
@@ -7022,22 +7022,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>943.510265746755</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1540.888753373307</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>781.8178837532263</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C37" t="n">
-        <v>781.8178837532263</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D37" t="n">
-        <v>631.7012443408905</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7137,10 +7137,10 @@
         <v>1394.184733704551</v>
       </c>
       <c r="X37" t="n">
-        <v>1184.258927726996</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y37" t="n">
-        <v>963.466348583466</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="38">
@@ -7156,37 +7156,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7259,19 +7259,19 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>868.6673633290469</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>699.73118040114</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>549.6145409888043</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888043</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7368,16 +7368,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1606.866663407555</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1317.449493370594</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1089.459942472577</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>868.6673633290469</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7405,25 +7405,25 @@
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7490,28 +7490,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>924.8344286397182</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1552.432392194325</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>951.777212765616</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>782.8410298377091</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>632.7243904253734</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7599,22 +7599,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7642,10 +7642,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
@@ -7663,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C45" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D45" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G45" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>2233.355914590558</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>2383.002557118213</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>2716.927329289434</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>3212.252935505192</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>3809.631423131744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>3809.631423131744</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>4361.541153371031</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>4420.931837070599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S45" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T45" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U45" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V45" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W45" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X45" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y45" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="46">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>808.8888553856862</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>639.9526724577793</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>489.8360330454435</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>489.8360330454435</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1211.329899359456</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>990.5373202159259</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -23418,10 +23418,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>12.68816929391124</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>45.0408928798632</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,10 +23475,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>34.1148277476193</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>70.88187642684011</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23892,19 +23892,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>14.15991148283342</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24138,10 +24138,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>34.97276993489206</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24186,16 +24186,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>146.0084629450602</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>112.6104454096908</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>18.61858572568039</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24846,16 +24846,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>34.97276993489206</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24897,13 +24897,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>152.1477127454046</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0.696047439816283</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25323,10 +25323,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>39.70888054695402</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>17.88310747125726</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25557,16 +25557,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>171.4336447811485</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25791,10 +25791,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>216.1389255780009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26031,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>140.4465591824926</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>818125.5910602278</v>
+        <v>818125.5910602279</v>
       </c>
     </row>
     <row r="6">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>818125.5910602279</v>
+        <v>818125.5910602278</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>818125.5910602279</v>
+        <v>818125.5910602278</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>818125.5910602279</v>
+        <v>818125.5910602278</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>818125.5910602279</v>
+        <v>818125.5910602278</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>818125.5910602279</v>
+        <v>818125.5910602278</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982123</v>
+        <v>615781.3273982122</v>
       </c>
       <c r="C2" t="n">
         <v>615781.3273982123</v>
@@ -26328,34 +26328,34 @@
         <v>605359.9497675041</v>
       </c>
       <c r="G2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="H2" t="n">
         <v>605359.9497675042</v>
       </c>
       <c r="I2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675045</v>
       </c>
       <c r="J2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="K2" t="n">
         <v>605359.9497675042</v>
       </c>
       <c r="L2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="M2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="N2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="O2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="P2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675046</v>
       </c>
     </row>
     <row r="3">
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90964.01098815714</v>
+        <v>90964.0109881571</v>
       </c>
       <c r="C4" t="n">
         <v>90964.0109881571</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.01098815704</v>
+        <v>90964.01098815707</v>
       </c>
       <c r="E4" t="n">
         <v>11776.97621680582</v>
@@ -26447,10 +26447,10 @@
         <v>11776.97621680582</v>
       </c>
       <c r="L4" t="n">
-        <v>11776.97621680586</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="M4" t="n">
-        <v>11776.97621680587</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="N4" t="n">
         <v>11776.97621680582</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-911861.3698789307</v>
+        <v>-911861.3698789309</v>
       </c>
       <c r="C6" t="n">
         <v>416883.3758486619</v>
       </c>
       <c r="D6" t="n">
-        <v>416883.375848662</v>
+        <v>416883.3758486619</v>
       </c>
       <c r="E6" t="n">
-        <v>167047.9819194362</v>
+        <v>166700.6026650793</v>
       </c>
       <c r="F6" t="n">
-        <v>492460.4437267911</v>
+        <v>492113.0644724342</v>
       </c>
       <c r="G6" t="n">
-        <v>492460.4437267915</v>
+        <v>492113.0644724343</v>
       </c>
       <c r="H6" t="n">
-        <v>492460.4437267912</v>
+        <v>492113.0644724343</v>
       </c>
       <c r="I6" t="n">
-        <v>492460.4437267912</v>
+        <v>492113.0644724345</v>
       </c>
       <c r="J6" t="n">
-        <v>274929.2413295138</v>
+        <v>274581.8620751568</v>
       </c>
       <c r="K6" t="n">
-        <v>492460.4437267912</v>
+        <v>492113.0644724343</v>
       </c>
       <c r="L6" t="n">
-        <v>492460.4437267915</v>
+        <v>492113.0644724342</v>
       </c>
       <c r="M6" t="n">
-        <v>407405.4157912796</v>
+        <v>407058.0365369224</v>
       </c>
       <c r="N6" t="n">
-        <v>492460.4437267914</v>
+        <v>492113.0644724342</v>
       </c>
       <c r="O6" t="n">
-        <v>492460.4437267912</v>
+        <v>492113.0644724342</v>
       </c>
       <c r="P6" t="n">
-        <v>492460.4437267914</v>
+        <v>492113.0644724346</v>
       </c>
     </row>
   </sheetData>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27387,7 +27387,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27438,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>274.7677005521847</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>253.2509233122026</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27551,13 +27551,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>10.26872847055301</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1.552118421397736</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>332.1697857788475</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>103.3587393628231</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,16 +27669,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27779,7 +27779,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>12.49918334450234</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>73.08464294440356</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>75.73292083663591</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27864,10 +27864,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27912,10 +27912,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>54.24421058935758</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>8.423656459117694</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28025,10 +28025,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>235.1317822440509</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -29814,7 +29814,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -29985,7 +29985,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -31837,31 +31837,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>637.8521160493917</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>473.8581708471803</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
@@ -31995,10 +31995,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067246</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663297</v>
       </c>
       <c r="K14" t="n">
         <v>699.5441750817575</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32083,7 +32083,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32092,16 +32092,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>361.7519118779092</v>
       </c>
       <c r="P15" t="n">
-        <v>334.7693860946154</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32317,16 +32317,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>543.5992845760902</v>
       </c>
       <c r="M18" t="n">
-        <v>316.6133175811573</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32338,7 +32338,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32551,16 +32551,16 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>671.9287955253226</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32569,13 +32569,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>321.1112257697157</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32800,19 +32800,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>431.3680753731354</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32946,7 +32946,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
         <v>699.5441750817575</v>
@@ -32967,7 +32967,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -33022,34 +33022,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>640.2652944187043</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33259,10 +33259,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33274,16 +33274,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>383.9182138639289</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33499,10 +33499,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>417.5509096439927</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33514,16 +33514,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33742,25 +33742,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>506.5895320981981</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33897,7 +33897,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
         <v>867.846407116256</v>
@@ -33979,22 +33979,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>281.0363767960755</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34140,7 +34140,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
         <v>981.2715114159425</v>
@@ -34210,7 +34210,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34219,22 +34219,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>452.8027404478649</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34389,7 +34389,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34459,19 +34459,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>193.964997009853</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>499.2977362695175</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>342.516458763847</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>37.00975247789211</v>
@@ -35643,10 +35643,10 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236318714</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396434</v>
       </c>
       <c r="K14" t="n">
         <v>479.454324036777</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,7 +35731,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35740,16 +35740,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="P15" t="n">
-        <v>200.7949786802852</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,16 +35965,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>405.0449047962161</v>
       </c>
       <c r="M18" t="n">
-        <v>174.479283659139</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -35986,7 +35986,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36123,7 +36123,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
@@ -36199,16 +36199,16 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>529.7947616033043</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36217,13 +36217,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>187.1368183553855</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36448,19 +36448,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>297.3936679588052</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
         <v>479.454324036777</v>
@@ -36615,7 +36615,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>498.1312604966861</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36922,16 +36922,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>249.9438064495987</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,10 +37147,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>279.7094706696337</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37162,16 +37162,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37390,25 +37390,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>368.0351523183239</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37545,7 +37545,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37627,22 +37627,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>138.9023428740572</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37858,7 +37858,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37867,22 +37867,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>310.2064960034205</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38037,7 +38037,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38107,19 +38107,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>59.99058959552271</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_18_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_18_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2313025.279198177</v>
+        <v>2314785.809500962</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283181</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9500189.557804354</v>
+        <v>9500189.557804352</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>109.3296738389799</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -676,7 +676,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>132.987015343851</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -819,25 +819,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>87.38003424864959</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>114.2656173771021</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -898,10 +898,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>118.5482349853168</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>191.2490250244974</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1065,10 +1065,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>72.33640507852758</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>179.0530003794244</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>307.0009208268447</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>256.4217010493342</v>
       </c>
       <c r="G8" t="n">
         <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>171.4083237228196</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1299,13 +1299,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>71.67037196991711</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1356,7 +1356,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417122</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>36.22494343870233</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>179.7186804608953</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1660,7 +1660,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1779,10 +1779,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>94.64226186542874</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1827,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>185.6920487814906</v>
       </c>
     </row>
     <row r="17">
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>130.5513683573768</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2298,7 +2298,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2374,7 +2374,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2478,10 +2478,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2535,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>31.40247677522967</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.702514956955</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2721,19 +2721,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>99.97427419833815</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>105.11626575513</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2772,10 +2772,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>163.9493858927508</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2958,16 +2958,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>105.3219429113318</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695391</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>125.8152577453148</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428753</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3505,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>99.97427419833815</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3957,7 +3957,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>205.6779548755971</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4137,25 +4137,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>179.2499669408062</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993393</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U2" t="n">
-        <v>2866.09759726723</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V2" t="n">
-        <v>2866.09759726723</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="W2" t="n">
-        <v>2866.09759726723</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X2" t="n">
-        <v>2866.09759726723</v>
+        <v>2158.0178522615</v>
       </c>
       <c r="Y2" t="n">
-        <v>2731.767278738087</v>
+        <v>2158.0178522615</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>1702.096133556937</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>1527.64310427581</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>1219.471239609103</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>1072.936681635988</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686079</v>
+        <v>936.5735814686059</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064755</v>
+        <v>846.0716871064735</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080134</v>
+        <v>827.0643955080114</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986308</v>
+        <v>920.7416649986287</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978978</v>
+        <v>1159.005863978976</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>1525.704024291641</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068414</v>
+        <v>2446.503393068412</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486468</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962571</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>3325.461468201685</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>3196.023581695165</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2775.312734507436</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>2285.923269547492</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>2078.071769341959</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1870.311470577005</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>216.6287558445192</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C4" t="n">
-        <v>216.6287558445192</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D4" t="n">
-        <v>66.51211643218342</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>66.51211643218342</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218342</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
         <v>315.6219318279954</v>
@@ -4512,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1839.031887231271</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1647.346003058097</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T4" t="n">
-        <v>1425.579387627623</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U4" t="n">
-        <v>1136.476520753267</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="V4" t="n">
-        <v>1136.476520753267</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="W4" t="n">
-        <v>847.0593507163063</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X4" t="n">
-        <v>619.069799818289</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y4" t="n">
-        <v>398.2772206747588</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="5">
@@ -4543,40 +4543,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1127.748203495404</v>
+        <v>1381.278680221567</v>
       </c>
       <c r="C5" t="n">
-        <v>1127.748203495404</v>
+        <v>1012.316163281155</v>
       </c>
       <c r="D5" t="n">
-        <v>1127.748203495404</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E5" t="n">
-        <v>1127.748203495404</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F5" t="n">
-        <v>716.7622987057964</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G5" t="n">
-        <v>301.6898485507929</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4585,34 +4585,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410102</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066532</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="W5" t="n">
-        <v>2277.953133796417</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X5" t="n">
-        <v>1904.487375535337</v>
+        <v>2158.0178522615</v>
       </c>
       <c r="Y5" t="n">
-        <v>1514.348043559526</v>
+        <v>1767.878520285688</v>
       </c>
     </row>
     <row r="6">
@@ -4622,10 +4622,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D6" t="n">
         <v>618.1564155387305</v>
@@ -4634,46 +4634,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064628</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>826.5851666348717</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C7" t="n">
-        <v>657.6489837069648</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D7" t="n">
-        <v>507.5323442946291</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="E7" t="n">
-        <v>359.619250712236</v>
+        <v>285.7963790512222</v>
       </c>
       <c r="F7" t="n">
-        <v>212.7293032143256</v>
+        <v>285.7963790512222</v>
       </c>
       <c r="G7" t="n">
         <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4761,16 +4761,16 @@
         <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1746.43293154362</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W7" t="n">
-        <v>1457.015761506659</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X7" t="n">
-        <v>1229.026210608642</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y7" t="n">
-        <v>1008.233631465111</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1899.13013587303</v>
+        <v>1491.569348694472</v>
       </c>
       <c r="C8" t="n">
-        <v>1530.167618932618</v>
+        <v>1122.606831754061</v>
       </c>
       <c r="D8" t="n">
-        <v>1171.901920325867</v>
+        <v>764.3411331473101</v>
       </c>
       <c r="E8" t="n">
-        <v>786.1136677276231</v>
+        <v>378.5528805490658</v>
       </c>
       <c r="F8" t="n">
-        <v>375.1277629380156</v>
+        <v>119.5410613073141</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912089</v>
@@ -4822,10 +4822,10 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4840,16 +4840,16 @@
         <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>3325.605821609171</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W8" t="n">
-        <v>2972.837166339057</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X8" t="n">
-        <v>2599.371408077977</v>
+        <v>2268.308520734406</v>
       </c>
       <c r="Y8" t="n">
-        <v>2209.232076102166</v>
+        <v>1878.169188758594</v>
       </c>
     </row>
     <row r="9">
@@ -4874,31 +4874,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>700.1577228956174</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C10" t="n">
-        <v>531.2215399677106</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D10" t="n">
-        <v>381.1049005553748</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>285.7963790512222</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4995,19 +4995,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1638.191681214136</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1383.507193008249</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W10" t="n">
-        <v>1094.090022971289</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X10" t="n">
-        <v>1094.090022971289</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y10" t="n">
-        <v>873.2974438277585</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="11">
@@ -5017,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5077,16 +5077,16 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5123,25 +5123,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>245.2306927803937</v>
+        <v>484.8243144841095</v>
       </c>
       <c r="L12" t="n">
-        <v>739.5354516872161</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.913939313768</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N12" t="n">
-        <v>1964.511902868375</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>2516.421633107662</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1053.171308869725</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C13" t="n">
-        <v>884.2351259418183</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D13" t="n">
-        <v>734.1184865294825</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E13" t="n">
-        <v>586.2053929470894</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F13" t="n">
-        <v>439.315445449179</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>272.119346164059</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>130.4075150062571</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.286391947399</v>
+        <v>1795.927059842937</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741512</v>
+        <v>1541.24257163705</v>
       </c>
       <c r="W13" t="n">
-        <v>1683.601903741512</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="X13" t="n">
-        <v>1455.612352843495</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y13" t="n">
-        <v>1234.819773699965</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="14">
@@ -5257,61 +5257,61 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111729</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>803.2707707770319</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C16" t="n">
-        <v>634.334587849125</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D16" t="n">
-        <v>484.2179484367892</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E16" t="n">
-        <v>336.3048548543961</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F16" t="n">
-        <v>189.4149073564858</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.74194400383</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797701</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853357</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>2157.887856924454</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1903.203368718567</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.701365648819</v>
+        <v>1613.786198681607</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.711814750802</v>
+        <v>1385.796647783589</v>
       </c>
       <c r="Y16" t="n">
-        <v>984.9192356072716</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="17">
@@ -5512,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5530,7 +5530,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5600,16 +5600,16 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>980.1499206998682</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5664,10 +5664,10 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5734,13 +5734,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5749,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5831,22 +5831,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>590.9096564684977</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1188.28814409505</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1815.886107649656</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2367.795837888943</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>768.5380889459582</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>599.6019060180513</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>449.4852666057155</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>449.4852666057155</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>449.4852666057155</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5946,16 +5946,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>950.1865537761979</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5986,10 +5986,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6004,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6123,10 +6123,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D25" t="n">
         <v>484.8112968429803</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6241,7 +6241,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>1057.955258982919</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>889.0190760550122</v>
       </c>
       <c r="D28" t="n">
-        <v>194.8007783998286</v>
+        <v>738.9024366426764</v>
       </c>
       <c r="E28" t="n">
-        <v>93.81666304797187</v>
+        <v>590.9893430602833</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6420,16 +6420,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1460.396302956689</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>1239.603723813159</v>
       </c>
     </row>
     <row r="29">
@@ -6451,7 +6451,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362687</v>
@@ -6478,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>768.5380889459582</v>
+        <v>784.5811134804959</v>
       </c>
       <c r="C31" t="n">
-        <v>599.6019060180513</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D31" t="n">
-        <v>449.4852666057155</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4852666057155</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F31" t="n">
-        <v>449.4852666057155</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G31" t="n">
-        <v>282.2891673205955</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
@@ -6624,49 +6624,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038403</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797804</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910815</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570823</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279808</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853367</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580266</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832669</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487573</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510514</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854712</v>
       </c>
       <c r="V31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854712</v>
       </c>
       <c r="W31" t="n">
-        <v>1398.968683817745</v>
+        <v>1398.968683817751</v>
       </c>
       <c r="X31" t="n">
-        <v>1170.979132919728</v>
+        <v>1170.979132919734</v>
       </c>
       <c r="Y31" t="n">
-        <v>950.1865537761979</v>
+        <v>950.1865537762038</v>
       </c>
     </row>
     <row r="32">
@@ -6679,43 +6679,43 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6727,22 +6727,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
@@ -6852,10 +6852,10 @@
         <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6925,31 +6925,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6958,7 +6958,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400771</v>
       </c>
       <c r="C37" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121702</v>
       </c>
       <c r="D37" t="n">
-        <v>444.7013164925216</v>
+        <v>344.9174178121702</v>
       </c>
       <c r="E37" t="n">
-        <v>444.7013164925216</v>
+        <v>344.9174178121702</v>
       </c>
       <c r="F37" t="n">
-        <v>444.7013164925216</v>
+        <v>344.9174178121702</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270502</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7110,37 +7110,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279808</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853367</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580266</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832669</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487573</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510514</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854712</v>
       </c>
       <c r="V37" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648825</v>
       </c>
       <c r="W37" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611864</v>
       </c>
       <c r="X37" t="n">
-        <v>1166.195182806534</v>
+        <v>916.294644713847</v>
       </c>
       <c r="Y37" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703169</v>
       </c>
     </row>
     <row r="38">
@@ -7156,40 +7156,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7314,16 +7314,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7387,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7605,16 +7605,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="44">
@@ -7636,16 +7636,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
@@ -7663,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>560.7825789706076</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>391.8463960427007</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D46" t="n">
-        <v>241.729756630365</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7848,10 +7848,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0408928798632</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>106.4657939283489</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23667,10 +23667,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>70.88187642684011</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>32.89260457060416</v>
       </c>
     </row>
     <row r="17">
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>34.97276993489206</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24366,10 +24366,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>220.7351665485983</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24609,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>46.45968844823102</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>40.30478226780122</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24660,10 +24660,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>15.88259428918647</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24846,16 +24846,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>34.97276993489206</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>39.70888054695402</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392193636</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25554,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>46.45968844823102</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>46.45968844823091</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>46.45968844823099</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>818125.5910602279</v>
+        <v>818125.5910602278</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>818125.5910602279</v>
+        <v>818125.5910602278</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>818125.5910602279</v>
+        <v>818125.5910602278</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>818125.5910602278</v>
+        <v>818125.5910602279</v>
       </c>
     </row>
     <row r="11">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>818125.5910602278</v>
+        <v>818125.5910602279</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982122</v>
+        <v>615781.3273982124</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982123</v>
+        <v>615781.327398212</v>
       </c>
       <c r="D2" t="n">
         <v>615781.3273982123</v>
       </c>
       <c r="E2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="F2" t="n">
         <v>605359.9497675042</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>605359.9497675041</v>
       </c>
-      <c r="G2" t="n">
-        <v>605359.9497675042</v>
-      </c>
       <c r="H2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675045</v>
       </c>
       <c r="I2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="J2" t="n">
         <v>605359.9497675041</v>
       </c>
       <c r="K2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="L2" t="n">
         <v>605359.9497675041</v>
       </c>
       <c r="M2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="N2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.949767504</v>
       </c>
       <c r="O2" t="n">
         <v>605359.9497675041</v>
       </c>
       <c r="P2" t="n">
-        <v>605359.9497675046</v>
+        <v>605359.9497675042</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>4.129485396250616e-11</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90964.0109881571</v>
+        <v>90964.01098815717</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.0109881571</v>
+        <v>90964.01098815716</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.01098815707</v>
+        <v>90964.01098815711</v>
       </c>
       <c r="E4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680579</v>
       </c>
       <c r="F4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680576</v>
       </c>
       <c r="G4" t="n">
         <v>11776.97621680582</v>
@@ -26444,13 +26444,13 @@
         <v>11776.97621680582</v>
       </c>
       <c r="K4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.9762168059</v>
       </c>
       <c r="L4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680588</v>
       </c>
       <c r="M4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.9762168059</v>
       </c>
       <c r="N4" t="n">
         <v>11776.97621680582</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-911861.3698789309</v>
+        <v>-911861.3698789306</v>
       </c>
       <c r="C6" t="n">
-        <v>416883.3758486619</v>
+        <v>416883.3758486616</v>
       </c>
       <c r="D6" t="n">
         <v>416883.3758486619</v>
       </c>
       <c r="E6" t="n">
-        <v>166700.6026650793</v>
+        <v>167013.2439940003</v>
       </c>
       <c r="F6" t="n">
-        <v>492113.0644724342</v>
+        <v>492425.7058013557</v>
       </c>
       <c r="G6" t="n">
-        <v>492113.0644724343</v>
+        <v>492425.7058013554</v>
       </c>
       <c r="H6" t="n">
-        <v>492113.0644724343</v>
+        <v>492425.7058013558</v>
       </c>
       <c r="I6" t="n">
-        <v>492113.0644724345</v>
+        <v>492425.7058013554</v>
       </c>
       <c r="J6" t="n">
-        <v>274581.8620751568</v>
+        <v>274894.5034040781</v>
       </c>
       <c r="K6" t="n">
-        <v>492113.0644724343</v>
+        <v>492425.7058013557</v>
       </c>
       <c r="L6" t="n">
-        <v>492113.0644724342</v>
+        <v>492425.7058013555</v>
       </c>
       <c r="M6" t="n">
-        <v>407058.0365369224</v>
+        <v>407370.6778658437</v>
       </c>
       <c r="N6" t="n">
-        <v>492113.0644724342</v>
+        <v>492425.7058013553</v>
       </c>
       <c r="O6" t="n">
-        <v>492113.0644724342</v>
+        <v>492425.7058013554</v>
       </c>
       <c r="P6" t="n">
-        <v>492113.0644724346</v>
+        <v>492425.7058013555</v>
       </c>
     </row>
   </sheetData>
@@ -26712,19 +26712,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>5.16185674531327e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>5.16185674531327e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>5.16185674531327e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>5.16185674531327e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>5.16185674531327e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26934,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>5.16185674531327e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>5.16185674531327e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>273.4041678245007</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>253.2509233122026</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,25 +27539,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,22 +27584,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>1.552118421397736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>137.8720259467259</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27618,10 +27618,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>236.1348066353661</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27633,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>103.3587393628231</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,7 +27672,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27785,10 +27785,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>93.68940318050065</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27833,7 +27833,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>73.08464294440356</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>75.73292083663591</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>150.4543446923773</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27912,7 +27912,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8.423656459117694</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28019,13 +28019,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>94.35543628911111</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28067,7 +28067,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28076,7 +28076,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28101,7 +28101,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-7.627995824641499e-13</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28511,7 +28511,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>-4.369123522703482e-12</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -29696,7 +29696,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>6.029048678525899e-12</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -29763,7 +29763,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>5.16185674531327e-14</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29799,7 +29799,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>1.392663762089796e-12</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -30182,7 +30182,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>6.029048678525899e-12</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -30240,7 +30240,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>5.16185674531327e-14</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -31843,28 +31843,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>379.8551982710416</v>
       </c>
       <c r="L12" t="n">
-        <v>637.8521160493917</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31998,7 +31998,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663297</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
         <v>699.5441750817575</v>
@@ -32016,7 +32016,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q14" t="n">
         <v>593.8732233669223</v>
@@ -32083,7 +32083,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32092,7 +32092,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>361.7519118779092</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32101,7 +32101,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32320,19 +32320,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>543.5992845760902</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32551,10 +32551,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32566,10 +32566,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>321.1112257697157</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32967,7 +32967,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -33192,7 +33192,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N29" t="n">
         <v>981.2715114159425</v>
@@ -33207,7 +33207,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -35491,28 +35491,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>242.0137592966826</v>
       </c>
       <c r="L12" t="n">
-        <v>499.2977362695175</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396434</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
         <v>479.454324036777</v>
@@ -35664,7 +35664,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q14" t="n">
         <v>371.5675334924728</v>
@@ -35731,7 +35731,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35740,7 +35740,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>219.1556674334648</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35749,7 +35749,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35807,7 +35807,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096306</v>
       </c>
       <c r="L16" t="n">
         <v>394.3420143191314</v>
@@ -35907,7 +35907,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,19 +35968,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>405.0449047962161</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36129,7 +36129,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36199,10 +36199,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36214,10 +36214,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>187.1368183553855</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36615,7 +36615,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36840,7 +36840,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36992,7 +36992,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409641</v>
       </c>
       <c r="L31" t="n">
         <v>394.3420143191314</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37478,7 +37478,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060515</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
